--- a/documentation/Brogrammers 2.0.2_Deliverable_3_ProductBacklog.xlsx
+++ b/documentation/Brogrammers 2.0.2_Deliverable_3_ProductBacklog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -52,45 +52,15 @@
     <t>0-100</t>
   </si>
   <si>
-    <t>00017</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have a login&gt; , because I want to &lt;save my progress&gt;.</t>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>As a &lt;player&gt;, I need to &lt;have an insert command&gt; , because I want to &lt;change my command list without restarting&gt;.</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>00019</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have a main menu&gt;, because I want to &lt;select different options&gt;.</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have easily identifiable obstacles&gt; , because I want &lt;my goal to be clear&gt;.</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>00020</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to  &lt;have a character to control&gt;, because I want to &lt;be able to traverse the levels&gt;</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have an insert command&gt; , because I want to &lt;change my command list without restarting&gt;.</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -100,18 +70,12 @@
     <t>As a &lt;player&gt;, I need to &lt;have simple controls&gt; , because I don't want the &lt;challenges to be with controls&gt;.</t>
   </si>
   <si>
-    <t>00018</t>
+    <t>00002</t>
   </si>
   <si>
     <t>As a &lt;player&gt;, I need to &lt;have graphics&gt; , because I want to &lt;see what I'm doing&gt;.</t>
   </si>
   <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have multiple levels&gt; , because I want to &lt;play for a while&gt;.</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -172,22 +136,10 @@
     <t>As a &lt;player&gt;, I need to &lt;have my commands not reset&gt; , because I want to &lt;improve my strategy&gt;.</t>
   </si>
   <si>
-    <t>00015</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have levels become more complex&gt; , because I want to &lt;have an increasingly challenging game&gt;.</t>
-  </si>
-  <si>
     <t>00016</t>
   </si>
   <si>
     <t>As a &lt;player&gt;, I need to &lt;have the game online&gt; , because I want to &lt;play whenever I have internet&gt;.</t>
-  </si>
-  <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have a victory screen&gt;, because I want to &lt;know when I beat the game&gt;.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -250,23 +202,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,6 +222,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -348,42 +291,42 @@
         <v>14</v>
       </c>
       <c r="C3" s="8">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="6">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="G3" s="6">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11">
-        <v>45.0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>7.0</v>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9">
+        <v>75.0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -394,42 +337,42 @@
         <v>20</v>
       </c>
       <c r="C5" s="8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="6">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
       <c r="G5" s="6">
         <v>15.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="G6" s="6">
         <v>3.0</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="14">
-        <v>43.0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -443,128 +386,128 @@
         <v>4.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="G7" s="6">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" s="8">
         <v>4.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="14">
-        <v>75.0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>25.0</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="8">
         <v>4.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6">
-        <v>85.0</v>
+        <v>20.0</v>
       </c>
       <c r="G9" s="6">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="G10" s="6">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>4.0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="G11" s="6">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>4.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="G12" s="6">
         <v>10.0</v>
@@ -572,242 +515,81 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>4.0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="G13" s="6">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>4.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6">
         <v>20.0</v>
       </c>
       <c r="G14" s="6">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="5">
         <v>4.0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F15" s="6">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="G15" s="6">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="6">
-        <v>35.0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>15.0</v>
-      </c>
+      <c r="B16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>10.0</v>
-      </c>
+      <c r="B17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="10"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
